--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.25960193149509</v>
+        <v>1.445484</v>
       </c>
       <c r="H2">
-        <v>6.25960193149509</v>
+        <v>4.336452</v>
       </c>
       <c r="I2">
-        <v>0.6675653125642289</v>
+        <v>0.1286708197254238</v>
       </c>
       <c r="J2">
-        <v>0.6675653125642289</v>
+        <v>0.1286708197254238</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.2902979613062</v>
+        <v>1.539665666666667</v>
       </c>
       <c r="N2">
-        <v>1.2902979613062</v>
+        <v>4.618997</v>
       </c>
       <c r="O2">
-        <v>0.5044191609537466</v>
+        <v>0.3572088291809875</v>
       </c>
       <c r="P2">
-        <v>0.5044191609537466</v>
+        <v>0.3572088291809875</v>
       </c>
       <c r="Q2">
-        <v>8.076751610796466</v>
+        <v>2.225562086516</v>
       </c>
       <c r="R2">
-        <v>8.076751610796466</v>
+        <v>20.030058778644</v>
       </c>
       <c r="S2">
-        <v>0.3367327348454739</v>
+        <v>0.04596235286387656</v>
       </c>
       <c r="T2">
-        <v>0.3367327348454739</v>
+        <v>0.04596235286387656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.25960193149509</v>
+        <v>1.445484</v>
       </c>
       <c r="H3">
-        <v>6.25960193149509</v>
+        <v>4.336452</v>
       </c>
       <c r="I3">
-        <v>0.6675653125642289</v>
+        <v>0.1286708197254238</v>
       </c>
       <c r="J3">
-        <v>0.6675653125642289</v>
+        <v>0.1286708197254238</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.26768964342025</v>
+        <v>1.452872333333333</v>
       </c>
       <c r="N3">
-        <v>1.26768964342025</v>
+        <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.4955808390462534</v>
+        <v>0.3370724153789985</v>
       </c>
       <c r="P3">
-        <v>0.4955808390462534</v>
+        <v>0.3370724153789985</v>
       </c>
       <c r="Q3">
-        <v>7.935232540489719</v>
+        <v>2.100103711876</v>
       </c>
       <c r="R3">
-        <v>7.935232540489719</v>
+        <v>18.900933406884</v>
       </c>
       <c r="S3">
-        <v>0.330832577718755</v>
+        <v>0.04337138399364429</v>
       </c>
       <c r="T3">
-        <v>0.330832577718755</v>
+        <v>0.04337138399364429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.11716138092287</v>
+        <v>1.445484</v>
       </c>
       <c r="H4">
-        <v>3.11716138092287</v>
+        <v>4.336452</v>
       </c>
       <c r="I4">
-        <v>0.332434687435771</v>
+        <v>0.1286708197254238</v>
       </c>
       <c r="J4">
-        <v>0.332434687435771</v>
+        <v>0.1286708197254238</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.2902979613062</v>
+        <v>1.317729666666667</v>
       </c>
       <c r="N4">
-        <v>1.2902979613062</v>
+        <v>3.953189</v>
       </c>
       <c r="O4">
-        <v>0.5044191609537466</v>
+        <v>0.3057187554400141</v>
       </c>
       <c r="P4">
-        <v>0.5044191609537466</v>
+        <v>0.3057187554400141</v>
       </c>
       <c r="Q4">
-        <v>4.022066974867198</v>
+        <v>1.904757149492</v>
       </c>
       <c r="R4">
-        <v>4.022066974867198</v>
+        <v>17.142814345428</v>
       </c>
       <c r="S4">
-        <v>0.1676864261082726</v>
+        <v>0.03933708286790299</v>
       </c>
       <c r="T4">
-        <v>0.1676864261082726</v>
+        <v>0.03933708286790299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.292313</v>
+      </c>
+      <c r="H5">
+        <v>18.876939</v>
+      </c>
+      <c r="I5">
+        <v>0.5601148623429528</v>
+      </c>
+      <c r="J5">
+        <v>0.5601148623429528</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.539665666666667</v>
+      </c>
+      <c r="N5">
+        <v>4.618997</v>
+      </c>
+      <c r="O5">
+        <v>0.3572088291809875</v>
+      </c>
+      <c r="P5">
+        <v>0.3572088291809875</v>
+      </c>
+      <c r="Q5">
+        <v>9.688058290020335</v>
+      </c>
+      <c r="R5">
+        <v>87.192524610183</v>
+      </c>
+      <c r="S5">
+        <v>0.2000779741843962</v>
+      </c>
+      <c r="T5">
+        <v>0.2000779741843962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6.292313</v>
+      </c>
+      <c r="H6">
+        <v>18.876939</v>
+      </c>
+      <c r="I6">
+        <v>0.5601148623429528</v>
+      </c>
+      <c r="J6">
+        <v>0.5601148623429528</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.452872333333333</v>
+      </c>
+      <c r="N6">
+        <v>4.358617</v>
+      </c>
+      <c r="O6">
+        <v>0.3370724153789985</v>
+      </c>
+      <c r="P6">
+        <v>0.3370724153789985</v>
+      </c>
+      <c r="Q6">
+        <v>9.141927470373666</v>
+      </c>
+      <c r="R6">
+        <v>82.277347233363</v>
+      </c>
+      <c r="S6">
+        <v>0.1887992695396144</v>
+      </c>
+      <c r="T6">
+        <v>0.1887992695396144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.292313</v>
+      </c>
+      <c r="H7">
+        <v>18.876939</v>
+      </c>
+      <c r="I7">
+        <v>0.5601148623429528</v>
+      </c>
+      <c r="J7">
+        <v>0.5601148623429528</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.317729666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.953189</v>
+      </c>
+      <c r="O7">
+        <v>0.3057187554400141</v>
+      </c>
+      <c r="P7">
+        <v>0.3057187554400141</v>
+      </c>
+      <c r="Q7">
+        <v>8.291567512052334</v>
+      </c>
+      <c r="R7">
+        <v>74.62410760847101</v>
+      </c>
+      <c r="S7">
+        <v>0.1712376186189423</v>
+      </c>
+      <c r="T7">
+        <v>0.1712376186189423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.496172</v>
+      </c>
+      <c r="H8">
+        <v>10.488516</v>
+      </c>
+      <c r="I8">
+        <v>0.3112143179316233</v>
+      </c>
+      <c r="J8">
+        <v>0.3112143179316232</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.539665666666667</v>
+      </c>
+      <c r="N8">
+        <v>4.618997</v>
+      </c>
+      <c r="O8">
+        <v>0.3572088291809875</v>
+      </c>
+      <c r="P8">
+        <v>0.3572088291809875</v>
+      </c>
+      <c r="Q8">
+        <v>5.382935993161334</v>
+      </c>
+      <c r="R8">
+        <v>48.44642393845201</v>
+      </c>
+      <c r="S8">
+        <v>0.1111685021327148</v>
+      </c>
+      <c r="T8">
+        <v>0.1111685021327147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.11716138092287</v>
-      </c>
-      <c r="H5">
-        <v>3.11716138092287</v>
-      </c>
-      <c r="I5">
-        <v>0.332434687435771</v>
-      </c>
-      <c r="J5">
-        <v>0.332434687435771</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.26768964342025</v>
-      </c>
-      <c r="N5">
-        <v>1.26768964342025</v>
-      </c>
-      <c r="O5">
-        <v>0.4955808390462534</v>
-      </c>
-      <c r="P5">
-        <v>0.4955808390462534</v>
-      </c>
-      <c r="Q5">
-        <v>3.951593199465487</v>
-      </c>
-      <c r="R5">
-        <v>3.951593199465487</v>
-      </c>
-      <c r="S5">
-        <v>0.1647482613274984</v>
-      </c>
-      <c r="T5">
-        <v>0.1647482613274984</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.496172</v>
+      </c>
+      <c r="H9">
+        <v>10.488516</v>
+      </c>
+      <c r="I9">
+        <v>0.3112143179316233</v>
+      </c>
+      <c r="J9">
+        <v>0.3112143179316232</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.452872333333333</v>
+      </c>
+      <c r="N9">
+        <v>4.358617</v>
+      </c>
+      <c r="O9">
+        <v>0.3370724153789985</v>
+      </c>
+      <c r="P9">
+        <v>0.3370724153789985</v>
+      </c>
+      <c r="Q9">
+        <v>5.079491571374667</v>
+      </c>
+      <c r="R9">
+        <v>45.715424142372</v>
+      </c>
+      <c r="S9">
+        <v>0.1049017618457398</v>
+      </c>
+      <c r="T9">
+        <v>0.1049017618457398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.496172</v>
+      </c>
+      <c r="H10">
+        <v>10.488516</v>
+      </c>
+      <c r="I10">
+        <v>0.3112143179316233</v>
+      </c>
+      <c r="J10">
+        <v>0.3112143179316232</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.317729666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.953189</v>
+      </c>
+      <c r="O10">
+        <v>0.3057187554400141</v>
+      </c>
+      <c r="P10">
+        <v>0.3057187554400141</v>
+      </c>
+      <c r="Q10">
+        <v>4.607009564169333</v>
+      </c>
+      <c r="R10">
+        <v>41.463086077524</v>
+      </c>
+      <c r="S10">
+        <v>0.09514405395316873</v>
+      </c>
+      <c r="T10">
+        <v>0.09514405395316872</v>
       </c>
     </row>
   </sheetData>
